--- a/public/excels/ImportThieuNhiXungToiHoacThemSuc.xlsx
+++ b/public/excels/ImportThieuNhiXungToiHoacThemSuc.xlsx
@@ -683,8 +683,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -857,7 +857,7 @@
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="B4" t="s">
         <v>83</v>
@@ -907,7 +907,7 @@
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="B5" t="s">
         <v>84</v>
@@ -1057,7 +1057,7 @@
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="B8" t="s">
         <v>83</v>
@@ -1107,7 +1107,7 @@
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="B9" t="s">
         <v>84</v>
@@ -1257,7 +1257,7 @@
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="B12" t="s">
         <v>83</v>
@@ -1307,7 +1307,7 @@
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="B13" t="s">
         <v>84</v>
@@ -1457,7 +1457,7 @@
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="B16" t="s">
         <v>83</v>
@@ -1507,7 +1507,7 @@
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="B17" t="s">
         <v>84</v>
@@ -1657,7 +1657,7 @@
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="B20" t="s">
         <v>83</v>
@@ -1707,7 +1707,7 @@
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="B21" t="s">
         <v>84</v>
@@ -1763,7 +1763,7 @@
     </row>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A1:A22 U1:U22 R1:R22 J1:J22 D1:D1048576 F1:F1048576 L2:L1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L2:L1048576 U1:U22 R1:R22 J1:J22 D1:D1048576 F1:F1048576 A1:A22">
       <formula1>TenThanh</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2:H1048576">

--- a/public/excels/ImportThieuNhiXungToiHoacThemSuc.xlsx
+++ b/public/excels/ImportThieuNhiXungToiHoacThemSuc.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\sogiadinhconggiao\public\excels\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\sgdcg\public\excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EF7BECA-5796-4C91-A02B-077C7CC1FDD8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7605"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Nhận bí tích" sheetId="1" r:id="rId1"/>
@@ -304,7 +305,10 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="165" formatCode="[$-1010000]d/m/yyyy;@"/>
+  </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -347,9 +351,9 @@
   </cellStyleXfs>
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -680,39 +684,38 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:P21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+      <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="16.25" customWidth="1"/>
-    <col min="3" max="3" width="12.375" customWidth="1"/>
-    <col min="4" max="5" width="15.25" customWidth="1"/>
-    <col min="6" max="7" width="16.25" customWidth="1"/>
-    <col min="8" max="8" width="9.875" customWidth="1"/>
-    <col min="9" max="9" width="15.25" customWidth="1"/>
-    <col min="10" max="10" width="15.75" customWidth="1"/>
-    <col min="11" max="11" width="11.625" customWidth="1"/>
+    <col min="2" max="2" width="16.19921875" customWidth="1"/>
+    <col min="3" max="3" width="12.3984375" style="3" customWidth="1"/>
+    <col min="4" max="5" width="15.19921875" customWidth="1"/>
+    <col min="6" max="7" width="16.19921875" customWidth="1"/>
+    <col min="8" max="8" width="9.8984375" customWidth="1"/>
+    <col min="9" max="9" width="15.19921875" customWidth="1"/>
+    <col min="10" max="10" width="15.69921875" customWidth="1"/>
+    <col min="11" max="11" width="12.3984375" style="3" customWidth="1"/>
     <col min="12" max="12" width="12" customWidth="1"/>
-    <col min="13" max="13" width="16.25" customWidth="1"/>
-    <col min="14" max="14" width="16.875" customWidth="1"/>
-    <col min="15" max="15" width="11.875" customWidth="1"/>
-    <col min="16" max="16" width="15.375" customWidth="1"/>
-    <col min="17" max="17" width="22.875" customWidth="1"/>
+    <col min="13" max="13" width="16.19921875" customWidth="1"/>
+    <col min="14" max="15" width="12.3984375" style="3" customWidth="1"/>
+    <col min="16" max="16" width="15.3984375" customWidth="1"/>
+    <col min="17" max="17" width="22.8984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
       <c r="D1" t="s">
@@ -736,7 +739,7 @@
       <c r="J1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K1" s="3" t="s">
         <v>10</v>
       </c>
       <c r="L1" t="s">
@@ -745,24 +748,24 @@
       <c r="M1" t="s">
         <v>4</v>
       </c>
-      <c r="N1" t="s">
+      <c r="N1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="O1" t="s">
+      <c r="O1" s="3" t="s">
         <v>6</v>
       </c>
       <c r="P1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>11</v>
       </c>
       <c r="B2" t="s">
         <v>77</v>
       </c>
-      <c r="C2" s="1">
+      <c r="C2" s="3">
         <v>40486</v>
       </c>
       <c r="D2" t="s">
@@ -786,7 +789,7 @@
       <c r="J2" t="s">
         <v>14</v>
       </c>
-      <c r="K2" s="1">
+      <c r="K2" s="3">
         <v>26665</v>
       </c>
       <c r="L2" t="s">
@@ -795,24 +798,24 @@
       <c r="M2" t="s">
         <v>12</v>
       </c>
-      <c r="N2" s="1">
+      <c r="N2" s="3">
         <v>25892</v>
       </c>
-      <c r="O2" s="1">
+      <c r="O2" s="3">
         <v>40239</v>
       </c>
       <c r="P2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>11</v>
       </c>
       <c r="B3" t="s">
         <v>82</v>
       </c>
-      <c r="C3" s="1">
+      <c r="C3" s="3">
         <v>40487</v>
       </c>
       <c r="D3" t="s">
@@ -836,7 +839,7 @@
       <c r="J3" t="s">
         <v>14</v>
       </c>
-      <c r="K3" s="1">
+      <c r="K3" s="3">
         <v>26665</v>
       </c>
       <c r="L3" t="s">
@@ -845,24 +848,24 @@
       <c r="M3" t="s">
         <v>12</v>
       </c>
-      <c r="N3" s="1">
+      <c r="N3" s="3">
         <v>25892</v>
       </c>
-      <c r="O3" s="1">
+      <c r="O3" s="3">
         <v>40239</v>
       </c>
       <c r="P3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>18</v>
       </c>
       <c r="B4" t="s">
         <v>83</v>
       </c>
-      <c r="C4" s="1">
+      <c r="C4" s="3">
         <v>40488</v>
       </c>
       <c r="D4" t="s">
@@ -886,7 +889,7 @@
       <c r="J4" t="s">
         <v>14</v>
       </c>
-      <c r="K4" s="1">
+      <c r="K4" s="3">
         <v>26665</v>
       </c>
       <c r="L4" t="s">
@@ -895,24 +898,24 @@
       <c r="M4" t="s">
         <v>12</v>
       </c>
-      <c r="N4" s="1">
+      <c r="N4" s="3">
         <v>25892</v>
       </c>
-      <c r="O4" s="1">
+      <c r="O4" s="3">
         <v>40239</v>
       </c>
       <c r="P4" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>18</v>
       </c>
       <c r="B5" t="s">
         <v>84</v>
       </c>
-      <c r="C5" s="1">
+      <c r="C5" s="3">
         <v>40489</v>
       </c>
       <c r="D5" t="s">
@@ -936,7 +939,7 @@
       <c r="J5" t="s">
         <v>14</v>
       </c>
-      <c r="K5" s="1">
+      <c r="K5" s="3">
         <v>26665</v>
       </c>
       <c r="L5" t="s">
@@ -945,24 +948,24 @@
       <c r="M5" t="s">
         <v>12</v>
       </c>
-      <c r="N5" s="1">
+      <c r="N5" s="3">
         <v>25892</v>
       </c>
-      <c r="O5" s="1">
+      <c r="O5" s="3">
         <v>40239</v>
       </c>
       <c r="P5" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>11</v>
       </c>
       <c r="B6" t="s">
         <v>77</v>
       </c>
-      <c r="C6" s="1">
+      <c r="C6" s="3">
         <v>40486</v>
       </c>
       <c r="D6" t="s">
@@ -986,7 +989,7 @@
       <c r="J6" t="s">
         <v>14</v>
       </c>
-      <c r="K6" s="1">
+      <c r="K6" s="3">
         <v>26665</v>
       </c>
       <c r="L6" t="s">
@@ -995,24 +998,24 @@
       <c r="M6" t="s">
         <v>12</v>
       </c>
-      <c r="N6" s="1">
+      <c r="N6" s="3">
         <v>25892</v>
       </c>
-      <c r="O6" s="1">
+      <c r="O6" s="3">
         <v>40239</v>
       </c>
       <c r="P6" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>11</v>
       </c>
       <c r="B7" t="s">
         <v>82</v>
       </c>
-      <c r="C7" s="1">
+      <c r="C7" s="3">
         <v>40487</v>
       </c>
       <c r="D7" t="s">
@@ -1036,7 +1039,7 @@
       <c r="J7" t="s">
         <v>14</v>
       </c>
-      <c r="K7" s="1">
+      <c r="K7" s="3">
         <v>26665</v>
       </c>
       <c r="L7" t="s">
@@ -1045,24 +1048,24 @@
       <c r="M7" t="s">
         <v>12</v>
       </c>
-      <c r="N7" s="1">
+      <c r="N7" s="3">
         <v>25892</v>
       </c>
-      <c r="O7" s="1">
+      <c r="O7" s="3">
         <v>40239</v>
       </c>
       <c r="P7" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>18</v>
       </c>
       <c r="B8" t="s">
         <v>83</v>
       </c>
-      <c r="C8" s="1">
+      <c r="C8" s="3">
         <v>40488</v>
       </c>
       <c r="D8" t="s">
@@ -1086,7 +1089,7 @@
       <c r="J8" t="s">
         <v>14</v>
       </c>
-      <c r="K8" s="1">
+      <c r="K8" s="3">
         <v>26665</v>
       </c>
       <c r="L8" t="s">
@@ -1095,24 +1098,24 @@
       <c r="M8" t="s">
         <v>12</v>
       </c>
-      <c r="N8" s="1">
+      <c r="N8" s="3">
         <v>25892</v>
       </c>
-      <c r="O8" s="1">
+      <c r="O8" s="3">
         <v>40239</v>
       </c>
       <c r="P8" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>18</v>
       </c>
       <c r="B9" t="s">
         <v>84</v>
       </c>
-      <c r="C9" s="1">
+      <c r="C9" s="3">
         <v>40489</v>
       </c>
       <c r="D9" t="s">
@@ -1136,7 +1139,7 @@
       <c r="J9" t="s">
         <v>14</v>
       </c>
-      <c r="K9" s="1">
+      <c r="K9" s="3">
         <v>26665</v>
       </c>
       <c r="L9" t="s">
@@ -1145,24 +1148,24 @@
       <c r="M9" t="s">
         <v>12</v>
       </c>
-      <c r="N9" s="1">
+      <c r="N9" s="3">
         <v>25892</v>
       </c>
-      <c r="O9" s="1">
+      <c r="O9" s="3">
         <v>40239</v>
       </c>
       <c r="P9" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>11</v>
       </c>
       <c r="B10" t="s">
         <v>77</v>
       </c>
-      <c r="C10" s="1">
+      <c r="C10" s="3">
         <v>40486</v>
       </c>
       <c r="D10" t="s">
@@ -1186,7 +1189,7 @@
       <c r="J10" t="s">
         <v>14</v>
       </c>
-      <c r="K10" s="1">
+      <c r="K10" s="3">
         <v>26665</v>
       </c>
       <c r="L10" t="s">
@@ -1195,24 +1198,24 @@
       <c r="M10" t="s">
         <v>12</v>
       </c>
-      <c r="N10" s="1">
+      <c r="N10" s="3">
         <v>25892</v>
       </c>
-      <c r="O10" s="1">
+      <c r="O10" s="3">
         <v>40239</v>
       </c>
       <c r="P10" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>11</v>
       </c>
       <c r="B11" t="s">
         <v>82</v>
       </c>
-      <c r="C11" s="1">
+      <c r="C11" s="3">
         <v>40487</v>
       </c>
       <c r="D11" t="s">
@@ -1236,7 +1239,7 @@
       <c r="J11" t="s">
         <v>14</v>
       </c>
-      <c r="K11" s="1">
+      <c r="K11" s="3">
         <v>26665</v>
       </c>
       <c r="L11" t="s">
@@ -1245,24 +1248,24 @@
       <c r="M11" t="s">
         <v>12</v>
       </c>
-      <c r="N11" s="1">
+      <c r="N11" s="3">
         <v>25892</v>
       </c>
-      <c r="O11" s="1">
+      <c r="O11" s="3">
         <v>40239</v>
       </c>
       <c r="P11" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>18</v>
       </c>
       <c r="B12" t="s">
         <v>83</v>
       </c>
-      <c r="C12" s="1">
+      <c r="C12" s="3">
         <v>40488</v>
       </c>
       <c r="D12" t="s">
@@ -1286,7 +1289,7 @@
       <c r="J12" t="s">
         <v>14</v>
       </c>
-      <c r="K12" s="1">
+      <c r="K12" s="3">
         <v>26665</v>
       </c>
       <c r="L12" t="s">
@@ -1295,24 +1298,24 @@
       <c r="M12" t="s">
         <v>12</v>
       </c>
-      <c r="N12" s="1">
+      <c r="N12" s="3">
         <v>25892</v>
       </c>
-      <c r="O12" s="1">
+      <c r="O12" s="3">
         <v>40239</v>
       </c>
       <c r="P12" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>18</v>
       </c>
       <c r="B13" t="s">
         <v>84</v>
       </c>
-      <c r="C13" s="1">
+      <c r="C13" s="3">
         <v>40489</v>
       </c>
       <c r="D13" t="s">
@@ -1336,7 +1339,7 @@
       <c r="J13" t="s">
         <v>14</v>
       </c>
-      <c r="K13" s="1">
+      <c r="K13" s="3">
         <v>26665</v>
       </c>
       <c r="L13" t="s">
@@ -1345,24 +1348,24 @@
       <c r="M13" t="s">
         <v>12</v>
       </c>
-      <c r="N13" s="1">
+      <c r="N13" s="3">
         <v>25892</v>
       </c>
-      <c r="O13" s="1">
+      <c r="O13" s="3">
         <v>40239</v>
       </c>
       <c r="P13" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>11</v>
       </c>
       <c r="B14" t="s">
         <v>77</v>
       </c>
-      <c r="C14" s="1">
+      <c r="C14" s="3">
         <v>40486</v>
       </c>
       <c r="D14" t="s">
@@ -1386,7 +1389,7 @@
       <c r="J14" t="s">
         <v>14</v>
       </c>
-      <c r="K14" s="1">
+      <c r="K14" s="3">
         <v>26665</v>
       </c>
       <c r="L14" t="s">
@@ -1395,24 +1398,24 @@
       <c r="M14" t="s">
         <v>12</v>
       </c>
-      <c r="N14" s="1">
+      <c r="N14" s="3">
         <v>25892</v>
       </c>
-      <c r="O14" s="1">
+      <c r="O14" s="3">
         <v>40239</v>
       </c>
       <c r="P14" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>11</v>
       </c>
       <c r="B15" t="s">
         <v>82</v>
       </c>
-      <c r="C15" s="1">
+      <c r="C15" s="3">
         <v>40487</v>
       </c>
       <c r="D15" t="s">
@@ -1436,7 +1439,7 @@
       <c r="J15" t="s">
         <v>14</v>
       </c>
-      <c r="K15" s="1">
+      <c r="K15" s="3">
         <v>26665</v>
       </c>
       <c r="L15" t="s">
@@ -1445,24 +1448,24 @@
       <c r="M15" t="s">
         <v>12</v>
       </c>
-      <c r="N15" s="1">
+      <c r="N15" s="3">
         <v>25892</v>
       </c>
-      <c r="O15" s="1">
+      <c r="O15" s="3">
         <v>40239</v>
       </c>
       <c r="P15" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>18</v>
       </c>
       <c r="B16" t="s">
         <v>83</v>
       </c>
-      <c r="C16" s="1">
+      <c r="C16" s="3">
         <v>40488</v>
       </c>
       <c r="D16" t="s">
@@ -1486,7 +1489,7 @@
       <c r="J16" t="s">
         <v>14</v>
       </c>
-      <c r="K16" s="1">
+      <c r="K16" s="3">
         <v>26665</v>
       </c>
       <c r="L16" t="s">
@@ -1495,24 +1498,24 @@
       <c r="M16" t="s">
         <v>12</v>
       </c>
-      <c r="N16" s="1">
+      <c r="N16" s="3">
         <v>25892</v>
       </c>
-      <c r="O16" s="1">
+      <c r="O16" s="3">
         <v>40239</v>
       </c>
       <c r="P16" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>18</v>
       </c>
       <c r="B17" t="s">
         <v>84</v>
       </c>
-      <c r="C17" s="1">
+      <c r="C17" s="3">
         <v>40489</v>
       </c>
       <c r="D17" t="s">
@@ -1536,7 +1539,7 @@
       <c r="J17" t="s">
         <v>14</v>
       </c>
-      <c r="K17" s="1">
+      <c r="K17" s="3">
         <v>26665</v>
       </c>
       <c r="L17" t="s">
@@ -1545,24 +1548,24 @@
       <c r="M17" t="s">
         <v>12</v>
       </c>
-      <c r="N17" s="1">
+      <c r="N17" s="3">
         <v>25892</v>
       </c>
-      <c r="O17" s="1">
+      <c r="O17" s="3">
         <v>40239</v>
       </c>
       <c r="P17" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>11</v>
       </c>
       <c r="B18" t="s">
         <v>77</v>
       </c>
-      <c r="C18" s="1">
+      <c r="C18" s="3">
         <v>40486</v>
       </c>
       <c r="D18" t="s">
@@ -1586,7 +1589,7 @@
       <c r="J18" t="s">
         <v>14</v>
       </c>
-      <c r="K18" s="1">
+      <c r="K18" s="3">
         <v>26665</v>
       </c>
       <c r="L18" t="s">
@@ -1595,24 +1598,24 @@
       <c r="M18" t="s">
         <v>12</v>
       </c>
-      <c r="N18" s="1">
+      <c r="N18" s="3">
         <v>25892</v>
       </c>
-      <c r="O18" s="1">
+      <c r="O18" s="3">
         <v>40239</v>
       </c>
       <c r="P18" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>11</v>
       </c>
       <c r="B19" t="s">
         <v>82</v>
       </c>
-      <c r="C19" s="1">
+      <c r="C19" s="3">
         <v>40487</v>
       </c>
       <c r="D19" t="s">
@@ -1636,7 +1639,7 @@
       <c r="J19" t="s">
         <v>14</v>
       </c>
-      <c r="K19" s="1">
+      <c r="K19" s="3">
         <v>26665</v>
       </c>
       <c r="L19" t="s">
@@ -1645,24 +1648,24 @@
       <c r="M19" t="s">
         <v>12</v>
       </c>
-      <c r="N19" s="1">
+      <c r="N19" s="3">
         <v>25892</v>
       </c>
-      <c r="O19" s="1">
+      <c r="O19" s="3">
         <v>40239</v>
       </c>
       <c r="P19" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>18</v>
       </c>
       <c r="B20" t="s">
         <v>83</v>
       </c>
-      <c r="C20" s="1">
+      <c r="C20" s="3">
         <v>40488</v>
       </c>
       <c r="D20" t="s">
@@ -1686,7 +1689,7 @@
       <c r="J20" t="s">
         <v>14</v>
       </c>
-      <c r="K20" s="1">
+      <c r="K20" s="3">
         <v>26665</v>
       </c>
       <c r="L20" t="s">
@@ -1695,24 +1698,24 @@
       <c r="M20" t="s">
         <v>12</v>
       </c>
-      <c r="N20" s="1">
+      <c r="N20" s="3">
         <v>25892</v>
       </c>
-      <c r="O20" s="1">
+      <c r="O20" s="3">
         <v>40239</v>
       </c>
       <c r="P20" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>18</v>
       </c>
       <c r="B21" t="s">
         <v>84</v>
       </c>
-      <c r="C21" s="1">
+      <c r="C21" s="3">
         <v>40489</v>
       </c>
       <c r="D21" t="s">
@@ -1736,7 +1739,7 @@
       <c r="J21" t="s">
         <v>14</v>
       </c>
-      <c r="K21" s="1">
+      <c r="K21" s="3">
         <v>26665</v>
       </c>
       <c r="L21" t="s">
@@ -1745,324 +1748,319 @@
       <c r="M21" t="s">
         <v>12</v>
       </c>
-      <c r="N21" s="1">
+      <c r="N21" s="3">
         <v>25892</v>
       </c>
-      <c r="O21" s="1">
+      <c r="O21" s="3">
         <v>40239</v>
       </c>
       <c r="P21" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="C22" s="1"/>
-      <c r="K22" s="1"/>
-      <c r="N22" s="1"/>
-      <c r="O22" s="1"/>
-    </row>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L2:L1048576 U1:U22 R1:R22 J1:J22 D1:D1048576 F1:F1048576 A1:A22">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L2:L1048576 U1:U22 R1:R22 J1:J22 D1:D1048576 F1:F1048576 A1:A22" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>TenThanh</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2:H1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2:H1048576" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>BT</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B54"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="16.8" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="13.625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="13.59765625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>15</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>17</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="2" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B4" s="3" t="s">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B4" s="2" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B5" s="3" t="s">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B5" s="2" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B6" s="3" t="s">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B6" s="2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B7" s="3" t="s">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B7" s="2" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B8" s="3" t="s">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B8" s="2" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B9" s="3" t="s">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B9" s="2" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B10" s="3" t="s">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B10" s="2" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B11" s="3" t="s">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B11" s="2" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B12" s="3" t="s">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B12" s="2" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B13" s="3" t="s">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B13" s="2" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B14" s="3" t="s">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B14" s="2" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B15" s="3" t="s">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B15" s="2" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B16" s="3" t="s">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B16" s="2" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B17" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B18" s="3" t="s">
+    <row r="17" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B17" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B18" s="2" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B19" s="3" t="s">
+    <row r="19" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B19" s="2" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B20" s="3" t="s">
+    <row r="20" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B20" s="2" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="21" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B21" s="3" t="s">
+    <row r="21" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B21" s="2" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="22" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B22" s="3" t="s">
+    <row r="22" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B22" s="2" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="23" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B23" s="3" t="s">
+    <row r="23" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B23" s="2" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="24" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B24" s="3" t="s">
+    <row r="24" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B24" s="2" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="25" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B25" s="3" t="s">
+    <row r="25" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B25" s="2" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="26" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B26" s="3" t="s">
+    <row r="26" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B26" s="2" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="27" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B27" s="3" t="s">
+    <row r="27" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B27" s="2" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="28" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B28" s="3" t="s">
+    <row r="28" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B28" s="2" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="29" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B29" s="3" t="s">
+    <row r="29" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B29" s="2" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="30" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B30" s="3" t="s">
+    <row r="30" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B30" s="2" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="31" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B31" s="3" t="s">
+    <row r="31" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B31" s="2" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="32" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B32" s="3" t="s">
+    <row r="32" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B32" s="2" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="33" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B33" s="3" t="s">
+    <row r="33" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B33" s="2" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="34" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B34" s="3" t="s">
+    <row r="34" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B34" s="2" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="35" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B35" s="3" t="s">
+    <row r="35" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B35" s="2" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="36" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B36" s="3" t="s">
+    <row r="36" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B36" s="2" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="37" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B37" s="3" t="s">
+    <row r="37" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B37" s="2" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="38" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B38" s="3" t="s">
+    <row r="38" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B38" s="2" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="39" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B39" s="3" t="s">
+    <row r="39" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B39" s="2" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="40" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B40" s="3" t="s">
+    <row r="40" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B40" s="2" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="41" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B41" s="3" t="s">
+    <row r="41" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B41" s="2" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="42" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B42" s="3" t="s">
+    <row r="42" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B42" s="2" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="43" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B43" s="3" t="s">
+    <row r="43" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B43" s="2" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="44" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B44" s="3" t="s">
+    <row r="44" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B44" s="2" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="45" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B45" s="3" t="s">
+    <row r="45" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B45" s="2" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="46" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B46" s="3" t="s">
+    <row r="46" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B46" s="2" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="47" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B47" s="3" t="s">
+    <row r="47" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B47" s="2" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="48" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B48" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="49" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B49" s="3" t="s">
+    <row r="48" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B48" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="49" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B49" s="2" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="50" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B50" s="3" t="s">
+    <row r="50" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B50" s="2" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="51" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B51" s="3" t="s">
+    <row r="51" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B51" s="2" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="52" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B52" s="3" t="s">
+    <row r="52" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B52" s="2" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="53" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B53" s="3" t="s">
+    <row r="53" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B53" s="2" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="54" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B54" s="3" t="s">
+    <row r="54" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B54" s="2" t="s">
         <v>70</v>
       </c>
     </row>
